--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.132500000000006</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.60190000000001</v>
+        <v>-21.58770000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.483799999999998</v>
+        <v>6.427899999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.839400000000004</v>
+        <v>3.989700000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.280900000000003</v>
+        <v>4.857800000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2207</v>
+        <v>-21.21710000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.395700000000012</v>
+        <v>9.122000000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.2051</v>
+        <v>-20.5227</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.027099999999997</v>
+        <v>9.1866</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5802</v>
+        <v>-19.647</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.019400000000001</v>
+        <v>5.652700000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6751</v>
+        <v>-21.7119</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.91269999999999</v>
+        <v>-21.87809999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4681</v>
+        <v>-22.54710000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.849999999999996</v>
+        <v>4.964499999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.46939999999997</v>
+        <v>-21.47559999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59679999999997</v>
+        <v>-21.57439999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.94130000000001</v>
+        <v>-21.8243</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.42460000000001</v>
+        <v>-21.37680000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.24159999999998</v>
+        <v>-20.14219999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.002499999999997</v>
+        <v>5.264100000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.154699999999998</v>
+        <v>8.325700000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
